--- a/src/main/resources/excel/organization_template.xlsx
+++ b/src/main/resources/excel/organization_template.xlsx
@@ -210,47 +210,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,89 +552,90 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="36.75" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="11"/>
     </row>
   </sheetData>
